--- a/employee_details.xlsx
+++ b/employee_details.xlsx
@@ -88,12 +88,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -109,23 +109,39 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -140,37 +156,7 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
       <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -191,13 +177,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -224,6 +203,14 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -231,6 +218,20 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -245,16 +246,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -269,187 +262,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -474,15 +467,6 @@
       </top>
       <bottom style="thin">
         <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -541,6 +525,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -578,82 +571,82 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -662,64 +655,64 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>

--- a/employee_details.xlsx
+++ b/employee_details.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>Employee Id</t>
   </si>
@@ -26,61 +26,34 @@
     <t>Year of Joining</t>
   </si>
   <si>
-    <t>104</t>
-  </si>
-  <si>
     <t>David</t>
   </si>
   <si>
-    <t>2017</t>
-  </si>
-  <si>
-    <t>105</t>
-  </si>
-  <si>
     <t>Michael</t>
   </si>
   <si>
-    <t>106</t>
-  </si>
-  <si>
     <t>Showmen</t>
   </si>
   <si>
-    <t>107</t>
-  </si>
-  <si>
     <t>Frank</t>
   </si>
   <si>
-    <t>2018</t>
-  </si>
-  <si>
-    <t>108</t>
-  </si>
-  <si>
     <t>Christopher</t>
   </si>
   <si>
-    <t>2019</t>
-  </si>
-  <si>
-    <t>109</t>
-  </si>
-  <si>
     <t>Jonathon</t>
   </si>
   <si>
-    <t>2020</t>
-  </si>
-  <si>
-    <t>110</t>
-  </si>
-  <si>
     <t>Brad</t>
   </si>
   <si>
-    <t>2016</t>
+    <t xml:space="preserve">Divya </t>
+  </si>
+  <si>
+    <t>pooja</t>
+  </si>
+  <si>
+    <t>sumit</t>
   </si>
 </sst>
 </file>
@@ -88,10 +61,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -110,21 +83,58 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
       <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -133,7 +143,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -142,21 +152,6 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -170,13 +165,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -209,38 +197,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -262,13 +235,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -280,13 +289,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -298,7 +343,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -310,13 +385,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -328,7 +397,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -340,109 +415,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -472,16 +445,51 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -510,21 +518,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -535,184 +528,164 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1067,13 +1040,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelRow="7" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelCol="2"/>
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
@@ -1087,80 +1060,113 @@
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" t="s">
+      <c r="A2">
+        <v>101</v>
+      </c>
+      <c r="B2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" t="s">
-        <v>5</v>
+      <c r="C2">
+        <v>2001</v>
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" t="s">
-        <v>6</v>
+      <c r="A3">
+        <v>102</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" t="s">
-        <v>5</v>
+        <v>4</v>
+      </c>
+      <c r="C3">
+        <v>2002</v>
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" t="s">
-        <v>8</v>
+      <c r="A4">
+        <v>103</v>
       </c>
       <c r="B4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" t="s">
         <v>5</v>
+      </c>
+      <c r="C4">
+        <v>2003</v>
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" t="s">
-        <v>10</v>
+      <c r="A5">
+        <v>104</v>
       </c>
       <c r="B5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" t="s">
-        <v>12</v>
+        <v>6</v>
+      </c>
+      <c r="C5">
+        <v>2004</v>
       </c>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" t="s">
-        <v>13</v>
+      <c r="A6">
+        <v>105</v>
       </c>
       <c r="B6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C6" t="s">
-        <v>15</v>
+        <v>7</v>
+      </c>
+      <c r="C6">
+        <v>2005</v>
       </c>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" t="s">
-        <v>16</v>
+      <c r="A7">
+        <v>106</v>
       </c>
       <c r="B7" t="s">
-        <v>17</v>
-      </c>
-      <c r="C7" t="s">
-        <v>18</v>
+        <v>8</v>
+      </c>
+      <c r="C7">
+        <v>2006</v>
       </c>
     </row>
     <row r="8" spans="1:3">
-      <c r="A8" t="s">
-        <v>19</v>
+      <c r="A8">
+        <v>107</v>
       </c>
       <c r="B8" t="s">
-        <v>20</v>
-      </c>
-      <c r="C8" t="s">
-        <v>21</v>
+        <v>9</v>
+      </c>
+      <c r="C8">
+        <v>2007</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9">
+        <v>108</v>
+      </c>
+      <c r="B9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9">
+        <v>2008</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10">
+        <v>109</v>
+      </c>
+      <c r="B10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10">
+        <v>2009</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11">
+        <v>110</v>
+      </c>
+      <c r="B11" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11">
+        <v>2010</v>
       </c>
     </row>
   </sheetData>
